--- a/project7/test/benchmark.xlsx
+++ b/project7/test/benchmark.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="5">
   <si>
     <t>表格 1</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>删除</t>
+  </si>
+  <si>
+    <t>查找</t>
   </si>
 </sst>
 </file>
@@ -281,9 +284,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0961206"/>
+          <c:x val="0.0643124"/>
           <c:y val="0.139581"/>
-          <c:w val="0.8804"/>
+          <c:w val="0.913188"/>
           <c:h val="0.79421"/>
         </c:manualLayout>
       </c:layout>
@@ -403,34 +406,34 @@
               <c:numCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.579973</c:v>
+                  <c:v>0.584912</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.602962</c:v>
+                  <c:v>0.621290</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.613007</c:v>
+                  <c:v>0.659595</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.626391</c:v>
+                  <c:v>0.641688</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.642398</c:v>
+                  <c:v>0.665350</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.679912</c:v>
+                  <c:v>0.684668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.681122</c:v>
+                  <c:v>0.685828</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.674293</c:v>
+                  <c:v>0.698543</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.685637</c:v>
+                  <c:v>0.704472</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.694877</c:v>
+                  <c:v>0.738861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,34 +553,189 @@
               <c:numCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.367187</c:v>
+                  <c:v>0.383294</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.404859</c:v>
+                  <c:v>0.400217</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.418669</c:v>
+                  <c:v>0.422581</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.424542</c:v>
+                  <c:v>0.434664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.451192</c:v>
+                  <c:v>0.457296</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.475438</c:v>
+                  <c:v>0.464894</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.481829</c:v>
+                  <c:v>0.488838</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.490920</c:v>
+                  <c:v>0.490103</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.487209</c:v>
+                  <c:v>0.473960</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.503060</c:v>
+                  <c:v>0.553054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'工作表 1'!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>查找</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:ln w="50800" cap="flat">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:hueOff val="-461056"/>
+                  <a:satOff val="4338"/>
+                  <a:lumOff val="-10225"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="400000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:ln w="50800" cap="flat">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:hueOff val="-461056"/>
+                    <a:satOff val="4338"/>
+                    <a:lumOff val="-10225"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="400000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" i="0" strike="noStrike" sz="1200" u="none">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'工作表 1'!$A$3:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'工作表 1'!$D$3:$D$12</c:f>
+              <c:numCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.145671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.172841</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.181163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.188028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.201493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.214273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.226907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.233664</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.257718</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.280745</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,8 +832,8 @@
         <c:crossAx val="2094734552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.175"/>
-        <c:minorUnit val="0.0875"/>
+        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -692,9 +850,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0432537"/>
+          <c:x val="0.0484"/>
           <c:y val="0"/>
-          <c:w val="0.939163"/>
+          <c:w val="0.9"/>
           <c:h val="0.0718633"/>
         </c:manualLayout>
       </c:layout>
@@ -740,7 +898,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>211836</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>25901</xdr:rowOff>
     </xdr:from>
@@ -756,8 +914,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="211836" y="6176205"/>
-        <a:ext cx="4868164" cy="3794015"/>
+        <a:off x="0" y="6176205"/>
+        <a:ext cx="5080000" cy="3794015"/>
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1865,7 +2023,9 @@
       <c r="C2" t="s" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="D2" t="s" s="3">
+        <v>4</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1875,12 +2035,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="6">
-        <v>0.579973</v>
+        <v>0.584912</v>
       </c>
       <c r="C3" s="7">
-        <v>0.367187</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>0.383294</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.145671</v>
+      </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -1890,12 +2052,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="10">
-        <v>0.602962</v>
+        <v>0.62129</v>
       </c>
       <c r="C4" s="11">
-        <v>0.404859</v>
-      </c>
-      <c r="D4" s="12"/>
+        <v>0.400217</v>
+      </c>
+      <c r="D4" s="11">
+        <v>0.172841</v>
+      </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -1905,12 +2069,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="10">
-        <v>0.613007</v>
+        <v>0.659595</v>
       </c>
       <c r="C5" s="11">
-        <v>0.418669</v>
-      </c>
-      <c r="D5" s="12"/>
+        <v>0.422581</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0.181163</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -1920,12 +2086,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="10">
-        <v>0.626391</v>
+        <v>0.641688</v>
       </c>
       <c r="C6" s="11">
-        <v>0.424542</v>
-      </c>
-      <c r="D6" s="12"/>
+        <v>0.434664</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.188028</v>
+      </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -1935,12 +2103,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="10">
-        <v>0.642398</v>
+        <v>0.66535</v>
       </c>
       <c r="C7" s="11">
-        <v>0.451192</v>
-      </c>
-      <c r="D7" s="12"/>
+        <v>0.457296</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0.201493</v>
+      </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
@@ -1950,12 +2120,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="10">
-        <v>0.679912</v>
+        <v>0.6846680000000001</v>
       </c>
       <c r="C8" s="11">
-        <v>0.475438</v>
-      </c>
-      <c r="D8" s="12"/>
+        <v>0.464894</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0.214273</v>
+      </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
@@ -1965,12 +2137,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="10">
-        <v>0.681122</v>
+        <v>0.685828</v>
       </c>
       <c r="C9" s="11">
-        <v>0.481829</v>
-      </c>
-      <c r="D9" s="12"/>
+        <v>0.488838</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0.226907</v>
+      </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
@@ -1980,12 +2154,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="10">
-        <v>0.674293</v>
+        <v>0.698543</v>
       </c>
       <c r="C10" s="11">
-        <v>0.49092</v>
-      </c>
-      <c r="D10" s="12"/>
+        <v>0.490103</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.233664</v>
+      </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
@@ -1995,12 +2171,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="10">
-        <v>0.6856370000000001</v>
+        <v>0.704472</v>
       </c>
       <c r="C11" s="11">
-        <v>0.487209</v>
-      </c>
-      <c r="D11" s="12"/>
+        <v>0.47396</v>
+      </c>
+      <c r="D11" s="11">
+        <v>0.257718</v>
+      </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -2010,12 +2188,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="10">
-        <v>0.694877</v>
+        <v>0.738861</v>
       </c>
       <c r="C12" s="11">
-        <v>0.50306</v>
-      </c>
-      <c r="D12" s="12"/>
+        <v>0.553054</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0.280745</v>
+      </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
